--- a/excel/format/HSB.xlsx
+++ b/excel/format/HSB.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="资产负债表" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="利润表" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="现金流量表" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="指标表" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="IMR" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="行情" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="资产负债表" sheetId="1" r:id="rId2" state="visible"/>
+    <sheet name="利润表" sheetId="2" r:id="rId3" state="visible"/>
+    <sheet name="现金流量表" sheetId="3" r:id="rId4" state="visible"/>
+    <sheet name="指标表" sheetId="4" r:id="rId5" state="visible"/>
+    <sheet name="IMR" sheetId="5" r:id="rId6" state="visible"/>
+    <sheet name="行情" sheetId="6" r:id="rId7" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t xml:space="preserve">证券简称</t>
   </si>
@@ -193,12 +193,228 @@
   </si>
   <si>
     <t xml:space="preserve">其他权益工具投资</t>
+  </si>
+  <si>
+    <t>以公允价值计量且其变动计入当期损益的金融资产(20190322弃用)</t>
+  </si>
+  <si>
+    <t>其中:应收利息</t>
+  </si>
+  <si>
+    <t>其中:应收股利</t>
+  </si>
+  <si>
+    <t>其中:消耗性生物资产</t>
+  </si>
+  <si>
+    <t>其他非流动金融资产</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>非流动资产合计</t>
+  </si>
+  <si>
+    <t>资产总计</t>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>向中央银行借款</t>
+  </si>
+  <si>
+    <t>吸收存款及同业存放</t>
+  </si>
+  <si>
+    <t>拆入资金</t>
+  </si>
+  <si>
+    <t>以公允价值计量且其变动计入当期损益的金融负债(20190322弃用)</t>
+  </si>
+  <si>
+    <t>衍生金融负债</t>
+  </si>
+  <si>
+    <t>应付票据</t>
+  </si>
+  <si>
+    <t>应付账款</t>
+  </si>
+  <si>
+    <t>预收款项</t>
+  </si>
+  <si>
+    <t>卖出回购金融资产款</t>
+  </si>
+  <si>
+    <t>应付手续费及佣金</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>其中:应付利息</t>
+  </si>
+  <si>
+    <t>其中:应付股利</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+  </si>
+  <si>
+    <t>应付关联公司款</t>
+  </si>
+  <si>
+    <t>应付分保账款</t>
+  </si>
+  <si>
+    <t>保险合同准备金</t>
+  </si>
+  <si>
+    <t>代理买卖证券款</t>
+  </si>
+  <si>
+    <t>代理承销证券款</t>
+  </si>
+  <si>
+    <t>划分为持有待售的负债</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>预计负债-流动负债</t>
+  </si>
+  <si>
+    <t>递延收益-流动负债</t>
+  </si>
+  <si>
+    <t>交易性金融负债</t>
+  </si>
+  <si>
+    <t>应付票据及应付账款</t>
+  </si>
+  <si>
+    <t>合同负债</t>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+  </si>
+  <si>
+    <t>流动负债合计</t>
+  </si>
+  <si>
+    <t>长期借款</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>其中:优先股-非流动负债</t>
+  </si>
+  <si>
+    <t>永续债-非流动负债</t>
+  </si>
+  <si>
+    <t>长期应付款</t>
+  </si>
+  <si>
+    <t>长期应付职工薪酬</t>
+  </si>
+  <si>
+    <t>专项应付款</t>
+  </si>
+  <si>
+    <t>预计负债</t>
+  </si>
+  <si>
+    <t>递延收益-非流动负债</t>
+  </si>
+  <si>
+    <t>递延所得税负债</t>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+  </si>
+  <si>
+    <t>非流动负债合计</t>
+  </si>
+  <si>
+    <t>负债合计</t>
+  </si>
+  <si>
+    <t>实收资本(或股本)</t>
+  </si>
+  <si>
+    <t>其他权益工具</t>
+  </si>
+  <si>
+    <t>其中:优先股-所有者权益</t>
+  </si>
+  <si>
+    <t>永续债-所有者权益</t>
+  </si>
+  <si>
+    <t>资本公积</t>
+  </si>
+  <si>
+    <t>减:库存股</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>专项储备</t>
+  </si>
+  <si>
+    <t>盈余公积</t>
+  </si>
+  <si>
+    <t>一般风险准备</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>外币报表折算价差</t>
+  </si>
+  <si>
+    <t>归属于母公司所有者权益</t>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+  </si>
+  <si>
+    <t>非正常经营项目收益调整</t>
+  </si>
+  <si>
+    <t>所有者权益(或股东权益)合计</t>
+  </si>
+  <si>
+    <t>负债和所有者(或股东权益)合计</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>应收款项融资</t>
+  </si>
+  <si>
+    <t>使用权资产</t>
+  </si>
+  <si>
+    <t>租赁负债</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -235,7 +451,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -245,8 +461,8 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="center"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -270,12 +486,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="center"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="center"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -291,199 +507,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:BD1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BE1" activeCellId="0" sqref="BE1"/>
+    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="BE1" activeCellId="0" pane="topLeft" sqref="BE1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.9"/>
+    <col customWidth="true" max="9" min="9" width="13.3"/>
+    <col customWidth="true" max="12" min="12" width="11.9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="17.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
+      <c r="N1" t="s">
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="0" t="s">
+      <c r="V1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="0" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="0" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="0" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="0" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="0" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="0" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="0" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="0" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="0" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="0" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>103</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>105</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>106</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 

--- a/excel/format/HSB.xlsx
+++ b/excel/format/HSB.xlsx
@@ -9,23 +9,18 @@
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId2" state="visible"/>
-    <sheet name="利润表" sheetId="2" r:id="rId3" state="visible"/>
-    <sheet name="现金流量表" sheetId="3" r:id="rId4" state="visible"/>
-    <sheet name="指标表" sheetId="4" r:id="rId5" state="visible"/>
-    <sheet name="IMR" sheetId="5" r:id="rId6" state="visible"/>
-    <sheet name="行情" sheetId="6" r:id="rId7" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr iterateCount="100" iterateDelta="0.001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
     <t xml:space="preserve">证券简称</t>
   </si>
@@ -66,7 +61,7 @@
     <t xml:space="preserve">拆出资金</t>
   </si>
   <si>
-    <t xml:space="preserve">以公允价值计量且其变动计入当期损益的金融资产</t>
+    <t xml:space="preserve">以公允价值计量且其变动计入当期损益的金融资产(20190322弃用)</t>
   </si>
   <si>
     <t xml:space="preserve">衍生金融资产</t>
@@ -90,10 +85,10 @@
     <t xml:space="preserve">应收分保合同准备金</t>
   </si>
   <si>
-    <t xml:space="preserve">其中：应收利息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其中：应收股利</t>
+    <t xml:space="preserve">其中:应收利息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其中:应收股利</t>
   </si>
   <si>
     <t xml:space="preserve">其他应收款</t>
@@ -108,7 +103,7 @@
     <t xml:space="preserve">存货</t>
   </si>
   <si>
-    <t xml:space="preserve">其中：消耗性生物资产</t>
+    <t xml:space="preserve">其中:消耗性生物资产</t>
   </si>
   <si>
     <t xml:space="preserve">划分为持有待售的资产</t>
@@ -195,220 +190,223 @@
     <t xml:space="preserve">其他权益工具投资</t>
   </si>
   <si>
-    <t>以公允价值计量且其变动计入当期损益的金融资产(20190322弃用)</t>
-  </si>
-  <si>
-    <t>其中:应收利息</t>
-  </si>
-  <si>
-    <t>其中:应收股利</t>
-  </si>
-  <si>
-    <t>其中:消耗性生物资产</t>
-  </si>
-  <si>
-    <t>其他非流动金融资产</t>
-  </si>
-  <si>
-    <t>其他非流动资产</t>
-  </si>
-  <si>
-    <t>非流动资产合计</t>
-  </si>
-  <si>
-    <t>资产总计</t>
-  </si>
-  <si>
-    <t>短期借款</t>
-  </si>
-  <si>
-    <t>向中央银行借款</t>
-  </si>
-  <si>
-    <t>吸收存款及同业存放</t>
-  </si>
-  <si>
-    <t>拆入资金</t>
-  </si>
-  <si>
-    <t>以公允价值计量且其变动计入当期损益的金融负债(20190322弃用)</t>
-  </si>
-  <si>
-    <t>衍生金融负债</t>
-  </si>
-  <si>
-    <t>应付票据</t>
-  </si>
-  <si>
-    <t>应付账款</t>
-  </si>
-  <si>
-    <t>预收款项</t>
-  </si>
-  <si>
-    <t>卖出回购金融资产款</t>
-  </si>
-  <si>
-    <t>应付手续费及佣金</t>
-  </si>
-  <si>
-    <t>应付职工薪酬</t>
-  </si>
-  <si>
-    <t>应交税费</t>
-  </si>
-  <si>
-    <t>其中:应付利息</t>
-  </si>
-  <si>
-    <t>其中:应付股利</t>
-  </si>
-  <si>
-    <t>其他应付款</t>
-  </si>
-  <si>
-    <t>应付关联公司款</t>
-  </si>
-  <si>
-    <t>应付分保账款</t>
-  </si>
-  <si>
-    <t>保险合同准备金</t>
-  </si>
-  <si>
-    <t>代理买卖证券款</t>
-  </si>
-  <si>
-    <t>代理承销证券款</t>
-  </si>
-  <si>
-    <t>划分为持有待售的负债</t>
-  </si>
-  <si>
-    <t>一年内到期的非流动负债</t>
-  </si>
-  <si>
-    <t>预计负债-流动负债</t>
-  </si>
-  <si>
-    <t>递延收益-流动负债</t>
-  </si>
-  <si>
-    <t>交易性金融负债</t>
-  </si>
-  <si>
-    <t>应付票据及应付账款</t>
-  </si>
-  <si>
-    <t>合同负债</t>
-  </si>
-  <si>
-    <t>其他流动负债</t>
-  </si>
-  <si>
-    <t>流动负债合计</t>
-  </si>
-  <si>
-    <t>长期借款</t>
-  </si>
-  <si>
-    <t>应付债券</t>
-  </si>
-  <si>
-    <t>其中:优先股-非流动负债</t>
-  </si>
-  <si>
-    <t>永续债-非流动负债</t>
-  </si>
-  <si>
-    <t>长期应付款</t>
-  </si>
-  <si>
-    <t>长期应付职工薪酬</t>
-  </si>
-  <si>
-    <t>专项应付款</t>
-  </si>
-  <si>
-    <t>预计负债</t>
-  </si>
-  <si>
-    <t>递延收益-非流动负债</t>
-  </si>
-  <si>
-    <t>递延所得税负债</t>
-  </si>
-  <si>
-    <t>其他非流动负债</t>
-  </si>
-  <si>
-    <t>非流动负债合计</t>
-  </si>
-  <si>
-    <t>负债合计</t>
-  </si>
-  <si>
-    <t>实收资本(或股本)</t>
-  </si>
-  <si>
-    <t>其他权益工具</t>
-  </si>
-  <si>
-    <t>其中:优先股-所有者权益</t>
-  </si>
-  <si>
-    <t>永续债-所有者权益</t>
-  </si>
-  <si>
-    <t>资本公积</t>
-  </si>
-  <si>
-    <t>减:库存股</t>
-  </si>
-  <si>
-    <t>其他综合收益</t>
-  </si>
-  <si>
-    <t>专项储备</t>
-  </si>
-  <si>
-    <t>盈余公积</t>
-  </si>
-  <si>
-    <t>一般风险准备</t>
-  </si>
-  <si>
-    <t>未分配利润</t>
-  </si>
-  <si>
-    <t>外币报表折算价差</t>
-  </si>
-  <si>
-    <t>归属于母公司所有者权益</t>
-  </si>
-  <si>
-    <t>少数股东权益</t>
-  </si>
-  <si>
-    <t>非正常经营项目收益调整</t>
-  </si>
-  <si>
-    <t>所有者权益(或股东权益)合计</t>
-  </si>
-  <si>
-    <t>负债和所有者(或股东权益)合计</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>应收款项融资</t>
-  </si>
-  <si>
-    <t>使用权资产</t>
-  </si>
-  <si>
-    <t>租赁负债</t>
+    <t xml:space="preserve">其他非流动金融资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他非流动资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非流动资产合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资产总计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">短期借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">向中央银行借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸收存款及同业存放</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拆入资金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以公允价值计量且其变动计入当期损益的金融负债(20190322弃用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">衍生金融负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付票据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预收款项</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卖出回购金融资产款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付手续费及佣金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付职工薪酬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应交税费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其中:应付利息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其中:应付股利</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付关联公司款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付分保账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保险合同准备金</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理买卖证券款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代理承销证券款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">划分为持有待售的负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预计负债-流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">递延收益-流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">交易性金融负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付票据及应付账款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合同负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">流动负债合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长期借款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应付债券</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其中:优先股-非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永续债-非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长期应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长期应付职工薪酬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专项应付款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">预计负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">递延收益-非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">递延所得税负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他非流动负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非流动负债合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">负债合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实收资本(或股本)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他权益工具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其中:优先股-所有者权益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永续债-所有者权益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资本公积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">减:库存股</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他综合收益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专项储备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">盈余公积</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般风险准备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未分配利润</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外币报表折算价差</t>
+  </si>
+  <si>
+    <t xml:space="preserve">归属于母公司所有者权益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">少数股东权益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非正常经营项目收益调整</t>
+  </si>
+  <si>
+    <t xml:space="preserve">所有者权益(或股东权益)合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">负债和所有者(或股东权益)合计</t>
+  </si>
+  <si>
+    <t xml:space="preserve">备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve">应收款项融资</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用权资产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">租赁负债</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nihao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -420,11 +418,10 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -461,7 +458,7 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment horizontal="general" vertical="bottom"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -484,13 +481,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center"/>
+      <alignment horizontal="general" vertical="bottom"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -510,19 +503,18 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD1"/>
+  <dimension ref="A1:DT1048576"/>
   <sheetViews>
-    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="BE1" activeCellId="0" pane="topLeft" sqref="BE1"/>
+    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BH1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="BO7" activeCellId="0" pane="topLeft" sqref="BO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.30078125" defaultRowHeight="12.85"/>
   <cols>
-    <col customWidth="true" max="9" min="9" width="13.3"/>
-    <col customWidth="true" max="12" min="12" width="11.9"/>
+    <col customWidth="true" max="124" min="1" width="11.38"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.15">
+    <row r="1" ht="14.15" customHeight="true">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,9 +555,9 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -587,10 +579,10 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
         <v>23</v>
@@ -605,7 +597,7 @@
         <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
         <v>28</v>
@@ -692,329 +684,592 @@
         <v>55</v>
       </c>
       <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" t="s">
         <v>99</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" t="s">
         <v>100</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" t="s">
         <v>101</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" t="s">
         <v>102</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" t="s">
         <v>103</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" t="s">
         <v>104</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" t="s">
         <v>105</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" t="s">
         <v>106</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" t="s">
         <v>107</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DE1" t="s">
         <v>108</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" t="s">
         <v>109</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" t="s">
         <v>110</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" t="s">
         <v>111</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" t="s">
         <v>112</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" t="s">
         <v>113</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DK1" t="s">
         <v>114</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DL1" t="s">
         <v>115</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DM1" t="s">
         <v>116</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DN1" t="s">
         <v>117</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DO1" t="s">
         <v>118</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DP1" t="s">
         <v>119</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DQ1" t="s">
         <v>120</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DR1" t="s">
         <v>121</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
         <v>122</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DT1" t="s">
         <v>123</v>
       </c>
-      <c r="DQ1" t="s">
+    </row>
+    <row r="2" ht="12.85">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="DS1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DT1" t="s">
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" t="s">
+        <v>126</v>
+      </c>
+      <c r="O2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U2" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W2" t="s">
+        <v>126</v>
+      </c>
+      <c r="X2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO2" t="s">
         <v>127</v>
       </c>
+      <c r="BP2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>128</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>126</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>126</v>
+      </c>
     </row>
+    <row r="1048576" ht="12.8"/>
   </sheetData>
   <printOptions gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  <pageSetup cellComments="none" copies="1" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>